--- a/2024/Peaks-dataset/shuffle-architecute/Teste10/better_results.xlsx
+++ b/2024/Peaks-dataset/shuffle-architecute/Teste10/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_2_9_17</t>
+          <t>model_2_9_16</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -546,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_2_9_8</t>
+          <t>model_2_9_17</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -587,11 +587,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_2_9_0</t>
+          <t>model_2_9_4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -632,11 +632,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_2_9_22</t>
+          <t>model_2_9_5</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -677,11 +677,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_2_9_21</t>
+          <t>model_2_9_6</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -722,11 +722,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model_2_9_20</t>
+          <t>model_2_9_7</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -767,11 +767,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>model_2_9_19</t>
+          <t>model_2_9_8</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -812,11 +812,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>model_2_9_18</t>
+          <t>model_2_9_9</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -857,11 +857,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>model_2_9_16</t>
+          <t>model_2_9_10</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -902,11 +902,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>model_2_9_15</t>
+          <t>model_2_9_12</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -947,11 +947,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>model_2_9_14</t>
+          <t>model_2_9_23</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -992,7 +992,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1037,11 +1037,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>model_2_9_23</t>
+          <t>model_2_9_14</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1082,11 +1082,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>model_2_9_12</t>
+          <t>model_2_9_15</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1127,11 +1127,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>model_2_9_10</t>
+          <t>model_2_9_0</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1172,11 +1172,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>model_2_9_9</t>
+          <t>model_2_9_22</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1217,11 +1217,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>model_2_9_7</t>
+          <t>model_2_9_21</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1262,11 +1262,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>model_2_9_5</t>
+          <t>model_2_9_20</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1307,11 +1307,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>model_2_9_4</t>
+          <t>model_2_9_19</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1352,7 +1352,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1532,11 +1532,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>model_2_9_6</t>
+          <t>model_2_9_18</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1577,7 +1577,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1622,361 +1622,46 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>model_6_9_1</t>
+          <t>model_6_9_0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9890766320245934</v>
+        <v>0.9881133015711803</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7179218092063615</v>
+        <v>0.7203370135611633</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9959604702961099</v>
+        <v>0.997320976250278</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9885580730966084</v>
+        <v>0.9967205162806334</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9941503130216787</v>
+        <v>0.9973204395727187</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04584303870797157</v>
+        <v>0.04988593235611916</v>
       </c>
       <c r="I27" t="n">
-        <v>1.886258125305176</v>
+        <v>1.870107650756836</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02470867335796356</v>
+        <v>0.0163868386298418</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02956332638859749</v>
+        <v>0.008473437279462814</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02713598124682903</v>
+        <v>0.01243015192449093</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>Hidden Size=[10, 11], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>model_6_9_0</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.9881133015711803</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.7203370135611633</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.997320976250278</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9967205162806334</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.9973204395727187</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.04988593235611916</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.870107650756836</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0163868386298418</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.008473437279462814</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.01243015192449093</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Hidden Size=[10, 11], regularizer=0.5, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>model_3_9_3</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.986526060681078</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.8065220418086885</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.9954489684078642</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9796559597785319</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.9954081698934883</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.05654723569750786</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.293787956237793</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0153904315084219</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.02007579989731312</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.01773309335112572</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Hidden Size=[10, 11], regularizer=0.2, learning_rate=0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>model_3_9_2</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.9863143697597604</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.8063246463511698</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.9954499192503563</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9805713466870455</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.9955255376898205</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.05743566527962685</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.295107960700989</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.01538721658289433</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.01917248219251633</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.01727983355522156</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Hidden Size=[10, 11], regularizer=0.2, learning_rate=0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>model_3_9_1</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.9860969309613811</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.8061220919096451</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.9954501227342986</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.981469734373733</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.9956404081476317</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.05834820866584778</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.296462416648865</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.01538652833551168</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01828594133257866</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.01683621853590012</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Hidden Size=[10, 11], regularizer=0.2, learning_rate=0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>model_3_9_0</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.9858736035818886</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.8059142665749357</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.995449723787351</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.9823493589674893</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.9957526140062801</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.05928545817732811</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.297852277755737</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.0153878778219223</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.01741791516542435</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.01640289276838303</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Hidden Size=[10, 11], regularizer=0.2, learning_rate=0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>model_7_8_24</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.9788028950322073</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.7579395023866324</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9853587229815656</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.9792656962666652</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.9897653634445395</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.0889597162604332</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.618659734725952</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.05155037343502045</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.05288022384047508</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.05221529677510262</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Hidden Size=[11, 12], regularizer=0.02, learning_rate=0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>model_7_8_23</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.9785623898988124</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.7576086186023142</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9855104293560026</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.9801848367797692</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.9900474577419105</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.08996905386447906</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.620872259140015</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.05101623386144638</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.05053607374429703</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.05077610164880753</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Hidden Size=[11, 12], regularizer=0.02, learning_rate=0.01</t>
         </is>
       </c>
     </row>
